--- a/examples/test/testFiles/ListReportOrdersNoErrosCoordinates.xlsx
+++ b/examples/test/testFiles/ListReportOrdersNoErrosCoordinates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianzeis/DEV/ui5-cc-spreadsheetimporter/examples/test/testFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084D020D-E6C7-6C47-9934-8A24D75F29D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F84D11-36D0-5140-8008-1EEE926C43C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="71200" yWindow="7740" windowWidth="21600" windowHeight="12100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -438,7 +438,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -476,33 +476,33 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B6">
+      <c r="A6">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7">
+      <c r="A7">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" xr:uid="{6AEF1AA3-6607-0146-ACD9-86E0F0D4AEFD}"/>
-    <hyperlink ref="C7" r:id="rId2" xr:uid="{793DD381-A950-4C61-8CB5-912E2AB30FF2}"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{6AEF1AA3-6607-0146-ACD9-86E0F0D4AEFD}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{793DD381-A950-4C61-8CB5-912E2AB30FF2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
